--- a/sequences_processing/ITS2_CLC/bi_order_ITS2.xlsx
+++ b/sequences_processing/ITS2_CLC/bi_order_ITS2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -491,10 +497,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1.54795115227737</v>
@@ -502,10 +514,16 @@
       <c r="C2" t="n">
         <v>0.722970670498848</v>
       </c>
+      <c r="D2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>1.75478085922492</v>
@@ -513,10 +531,16 @@
       <c r="C3" t="n">
         <v>0.778339129121496</v>
       </c>
+      <c r="D3" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.6470588235294</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>1.77665001619021</v>
@@ -524,10 +548,16 @@
       <c r="C4" t="n">
         <v>0.780800430730622</v>
       </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>1.69137374346994</v>
@@ -535,10 +565,16 @@
       <c r="C5" t="n">
         <v>0.773942083838767</v>
       </c>
+      <c r="D5" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29.6304347826087</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>1.69721882534437</v>
@@ -546,10 +582,16 @@
       <c r="C6" t="n">
         <v>0.763570817273353</v>
       </c>
+      <c r="D6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.7391304347826</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>1.81376201952335</v>
@@ -557,10 +599,16 @@
       <c r="C7" t="n">
         <v>0.792138033507148</v>
       </c>
+      <c r="D7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21.6153846153846</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>1.63113973410891</v>
@@ -568,10 +616,16 @@
       <c r="C8" t="n">
         <v>0.751574258460587</v>
       </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.5454545454545</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>1.64993926297616</v>
@@ -579,10 +633,16 @@
       <c r="C9" t="n">
         <v>0.741257324794757</v>
       </c>
+      <c r="D9" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.3913043478261</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>1.68264457715667</v>
@@ -590,10 +650,16 @@
       <c r="C10" t="n">
         <v>0.772026584293527</v>
       </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29.1304347826087</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>1.76521985186924</v>
@@ -601,10 +667,16 @@
       <c r="C11" t="n">
         <v>0.798791484878129</v>
       </c>
+      <c r="D11" t="n">
+        <v>32</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.5238095238095</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>1.72726201200173</v>
@@ -612,10 +684,16 @@
       <c r="C12" t="n">
         <v>0.780496153461774</v>
       </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.4615384615385</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>1.77052676903096</v>
@@ -623,10 +701,16 @@
       <c r="C13" t="n">
         <v>0.781111840329661</v>
       </c>
+      <c r="D13" t="n">
+        <v>34</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27.4193548387097</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>1.73191054964245</v>
@@ -634,10 +718,16 @@
       <c r="C14" t="n">
         <v>0.771134997762852</v>
       </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20.7692307692308</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>1.69982071578319</v>
@@ -645,10 +735,16 @@
       <c r="C15" t="n">
         <v>0.768384278216874</v>
       </c>
+      <c r="D15" t="n">
+        <v>35</v>
+      </c>
+      <c r="E15" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>1.58527284888388</v>
@@ -656,10 +752,16 @@
       <c r="C16" t="n">
         <v>0.743088419166144</v>
       </c>
+      <c r="D16" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23.1538461538462</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>1.65566391691165</v>
@@ -667,10 +769,16 @@
       <c r="C17" t="n">
         <v>0.772369611373154</v>
       </c>
+      <c r="D17" t="n">
+        <v>40</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>1.81622038327442</v>
@@ -678,10 +786,16 @@
       <c r="C18" t="n">
         <v>0.803133863528673</v>
       </c>
+      <c r="D18" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>23.6875</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>1.55096058533014</v>
@@ -689,10 +803,16 @@
       <c r="C19" t="n">
         <v>0.737765191643622</v>
       </c>
+      <c r="D19" t="n">
+        <v>34</v>
+      </c>
+      <c r="E19" t="n">
+        <v>27.1304347826087</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>1.8282149589488</v>
@@ -700,10 +820,16 @@
       <c r="C20" t="n">
         <v>0.800557243532505</v>
       </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>23.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>1.73642946329089</v>
@@ -711,10 +837,16 @@
       <c r="C21" t="n">
         <v>0.780869850470835</v>
       </c>
+      <c r="D21" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.6666666666667</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>1.8027772747571</v>
@@ -722,10 +854,16 @@
       <c r="C22" t="n">
         <v>0.793663333213812</v>
       </c>
+      <c r="D22" t="n">
+        <v>37</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>1.78402756076276</v>
@@ -733,10 +871,16 @@
       <c r="C23" t="n">
         <v>0.794947274789611</v>
       </c>
+      <c r="D23" t="n">
+        <v>26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23.8823529411765</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
         <v>1.6110028772322</v>
@@ -744,10 +888,16 @@
       <c r="C24" t="n">
         <v>0.766228342617882</v>
       </c>
+      <c r="D24" t="n">
+        <v>20.6666666666667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20.6363636363636</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>1.58435472423026</v>
@@ -755,10 +905,16 @@
       <c r="C25" t="n">
         <v>0.744544706047486</v>
       </c>
+      <c r="D25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
         <v>1.24871545368901</v>
@@ -766,10 +922,16 @@
       <c r="C26" t="n">
         <v>0.574011738075043</v>
       </c>
+      <c r="D26" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21.6153846153846</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>1.79433572397259</v>
@@ -777,10 +939,16 @@
       <c r="C27" t="n">
         <v>0.788337982556952</v>
       </c>
+      <c r="D27" t="n">
+        <v>33</v>
+      </c>
+      <c r="E27" t="n">
+        <v>26.7391304347826</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>1.60106100818107</v>
@@ -788,10 +956,16 @@
       <c r="C28" t="n">
         <v>0.767511480046571</v>
       </c>
+      <c r="D28" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17.2941176470588</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
         <v>1.46074117079849</v>
@@ -799,10 +973,16 @@
       <c r="C29" t="n">
         <v>0.711546031442662</v>
       </c>
+      <c r="D29" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="E29" t="n">
+        <v>22.3684210526316</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>1.78904241289926</v>
@@ -810,10 +990,16 @@
       <c r="C30" t="n">
         <v>0.806205520335504</v>
       </c>
+      <c r="D30" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24.0769230769231</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.59676475670627</v>
@@ -821,10 +1007,16 @@
       <c r="C31" t="n">
         <v>0.723752500273634</v>
       </c>
+      <c r="D31" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="E31" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
         <v>1.50355346704079</v>
@@ -832,10 +1024,16 @@
       <c r="C32" t="n">
         <v>0.708671549655112</v>
       </c>
+      <c r="D32" t="n">
+        <v>36</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23.1428571428571</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
         <v>1.70365049067041</v>
@@ -843,10 +1041,16 @@
       <c r="C33" t="n">
         <v>0.778733749510553</v>
       </c>
+      <c r="D33" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28.2162162162162</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
         <v>1.76902683585135</v>
@@ -854,10 +1058,16 @@
       <c r="C34" t="n">
         <v>0.783182149549294</v>
       </c>
+      <c r="D34" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>29.7567567567568</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
         <v>1.78753093521915</v>
@@ -865,10 +1075,16 @@
       <c r="C35" t="n">
         <v>0.794178649505954</v>
       </c>
+      <c r="D35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>26.3846153846154</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
         <v>1.41621951651422</v>
@@ -876,10 +1092,16 @@
       <c r="C36" t="n">
         <v>0.667032765386365</v>
       </c>
+      <c r="D36" t="n">
+        <v>17</v>
+      </c>
+      <c r="E36" t="n">
+        <v>17.1818181818182</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
         <v>1.69606700826963</v>
@@ -887,10 +1109,16 @@
       <c r="C37" t="n">
         <v>0.775874180830373</v>
       </c>
+      <c r="D37" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="E37" t="n">
+        <v>28.1612903225806</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
         <v>1.61907830500089</v>
@@ -898,10 +1126,16 @@
       <c r="C38" t="n">
         <v>0.742230140094986</v>
       </c>
+      <c r="D38" t="n">
+        <v>32</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25.3636363636364</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
         <v>1.46697110275644</v>
@@ -909,10 +1143,16 @@
       <c r="C39" t="n">
         <v>0.672052251996768</v>
       </c>
+      <c r="D39" t="n">
+        <v>26</v>
+      </c>
+      <c r="E39" t="n">
+        <v>21.8666666666667</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
         <v>1.61950849783646</v>
@@ -920,10 +1160,16 @@
       <c r="C40" t="n">
         <v>0.748040525321804</v>
       </c>
+      <c r="D40" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
         <v>1.58558207964746</v>
@@ -931,10 +1177,16 @@
       <c r="C41" t="n">
         <v>0.721267885923669</v>
       </c>
+      <c r="D41" t="n">
+        <v>23.6666666666667</v>
+      </c>
+      <c r="E41" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
         <v>1.82192848195524</v>
@@ -942,10 +1194,16 @@
       <c r="C42" t="n">
         <v>0.799866203756449</v>
       </c>
+      <c r="D42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26.5714285714286</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n">
         <v>1.92763246520126</v>
@@ -953,16 +1211,28 @@
       <c r="C43" t="n">
         <v>0.828564912068881</v>
       </c>
+      <c r="D43" t="n">
+        <v>21</v>
+      </c>
+      <c r="E43" t="n">
+        <v>19.4848484848485</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
         <v>1.67316145788804</v>
       </c>
       <c r="C44" t="n">
         <v>0.745349782652953</v>
+      </c>
+      <c r="D44" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23.9166666666667</v>
       </c>
     </row>
   </sheetData>
